--- a/sinav_programi.xlsx
+++ b/sinav_programi.xlsx
@@ -7,7 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sınav Programı" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Derslik Raporu" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Uyarılar" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,7 +19,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,13 +30,41 @@
     <font>
       <b val="1"/>
     </font>
+    <font>
+      <name val="Segoe UI"/>
+      <sz val="11"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E3F2FD"/>
+        <bgColor rgb="00E3F2FD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E8F5E9"/>
+        <bgColor rgb="00E8F5E9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFF3E0"/>
+        <bgColor rgb="00FFF3E0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F3E5F5"/>
+        <bgColor rgb="00F3E5F5"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -55,10 +85,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -425,7 +467,627 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Ders</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Derslik</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Tarih</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Saat</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Tür</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>AIT109 - Atatürk İlkeleri ve İnkılap Tarihi I</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>selimbozkuert</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>27.10.2025</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>Bütünleme</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>TDB107 - Türk Dili I</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>selimbozkuert</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>27.10.2025</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>Bütünleme</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>YDB117 - İngilizce I</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>selimbozkuert</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>27.10.2025</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>Bütünleme</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>FEF111 - Fizik I</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>selimbozkuert</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>27.10.2025</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>Bütünleme</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>FEF113 - Lineer Cebir</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>selimbozkuert</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>28.10.2025</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>Bütünleme</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>FEF115 - Matematik I</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>selimbozkuert</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>28.10.2025</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>Bütünleme</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>BLM101 - Bilgisayar Laboratuvarı I</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>selimbozkuert</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>28.10.2025</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>Bütünleme</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>BLM103 - Bilgisayar Mühendisliğine Giriş</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>selimbozkuert</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>28.10.2025</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>Bütünleme</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>BLM105 - Programlama I</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>selimbozkuert</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>29.10.2025</t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t>Bütünleme</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="inlineStr">
+        <is>
+          <t>FEF203 - Diferansiyel Denklemler</t>
+        </is>
+      </c>
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>selimbozkuert</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t>29.10.2025</t>
+        </is>
+      </c>
+      <c r="D11" s="4" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="E11" s="4" t="inlineStr">
+        <is>
+          <t>Bütünleme</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="inlineStr">
+        <is>
+          <t>MUH201 - Nesneye Yönelik Programlama</t>
+        </is>
+      </c>
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>selimbozkuert</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t>29.10.2025</t>
+        </is>
+      </c>
+      <c r="D12" s="4" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="E12" s="4" t="inlineStr">
+        <is>
+          <t>Bütünleme</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="inlineStr">
+        <is>
+          <t>BLM207 - Veri Yapıları ve Algoritmaları</t>
+        </is>
+      </c>
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>selimbozkuert</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t>29.10.2025</t>
+        </is>
+      </c>
+      <c r="D13" s="4" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="E13" s="4" t="inlineStr">
+        <is>
+          <t>Bütünleme</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>BLM209 - Programlama Laboratuvarı - I</t>
+        </is>
+      </c>
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>selimbozkuert</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>30.10.2025</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="E14" s="5" t="inlineStr">
+        <is>
+          <t>Bütünleme</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="inlineStr">
+        <is>
+          <t>BLM211 - Mantıksal Tasarım ve Uygulamalar</t>
+        </is>
+      </c>
+      <c r="B15" s="5" t="inlineStr">
+        <is>
+          <t>selimbozkuert</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>30.10.2025</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="E15" s="5" t="inlineStr">
+        <is>
+          <t>Bütünleme</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="inlineStr">
+        <is>
+          <t>BLM205 - Ayrık Matematik</t>
+        </is>
+      </c>
+      <c r="B16" s="5" t="inlineStr">
+        <is>
+          <t>selimbozkuert</t>
+        </is>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>30.10.2025</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="E16" s="5" t="inlineStr">
+        <is>
+          <t>Bütünleme</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="inlineStr">
+        <is>
+          <t>BLM213 - Staj I</t>
+        </is>
+      </c>
+      <c r="B17" s="5" t="inlineStr">
+        <is>
+          <t>selimbozkuert</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>30.10.2025</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="E17" s="5" t="inlineStr">
+        <is>
+          <t>Bütünleme</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>MUH301 - Sayısal Yöntemler</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>selimbozkuert</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>31.10.2025</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>Bütünleme</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>BLM303 - İşaret ve Sistemler</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>selimbozkuert</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>31.10.2025</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>Bütünleme</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>BLM305 - İşletim Sistemleri</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>selimbozkuert</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>31.10.2025</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>Bütünleme</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>BLM325 - Mikroişlemci Sistemleri</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>selimbozkuert</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>31.10.2025</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>Bütünleme</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>MAT101 - Matematik I</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>Atatürk ilkeleri ve inklab</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>27.10.2025</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>Bütünleme</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,378 +1098,2666 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Ders</t>
+          <t>Derslik</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Derslik</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Tarih</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Saat</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Tür</t>
+          <t>Ortalama Doluluk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MAT101 - Matematik I</t>
+          <t>selimbozkuert</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Atatürk ilkeleri ve inklab</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>25.10.2025</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>09:00</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Vize</t>
+          <t>2000/20 sınav</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CSE101 - Programlamaya Giriş</t>
+          <t>Atatürk ilkeleri ve inklab</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Atatürk ilkeleri ve inklab</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>26.10.2025</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>09:00</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Vize</t>
+          <t>1/1 sınav</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A373"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Uyarılar</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>⚠️ BLM307 - Yazılım Laboratuvarı I: Uygun slot veya derslik bulunamadı.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>⚠️ BLM309 - Staj II: Uygun slot veya derslik bulunamadı.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CSE201 - Veri Yapıları</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Atatürk ilkeleri ve inklab</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>23.10.2025</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>09:00</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Vize</t>
+          <t>⚠️ BLM323 - Bilgi Güvenliği ve Kriptografi: Uygun slot veya derslik bulunamadı.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CSE305 - Görüntü İşleme</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Atatürk ilkeleri ve inklab</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>24.10.2025</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>09:00</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Vize</t>
+          <t>⚠️ BLM321 - Robotlar için Matematik Temelleri: Uygun slot veya derslik bulunamadı.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SBE202 - İşletme Yönetimi</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>selimbozkuert</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>24.10.2025</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>09:00</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Vize</t>
+          <t>⚠️ MUH403 - Araştırma Problemleri: Uygun slot veya derslik bulunamadı.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CSE410 - Yapay Zeka</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>selimbozkuert</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>25.10.2025</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>09:00</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Vize</t>
+          <t>⚠️ MUH402 - Bitirme Çalışması: Uygun slot veya derslik bulunamadı.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CENG101 - Programlamaya Giriş</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Atatürk ilkeleri ve inklab</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>27.10.2025</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>09:00</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Vize</t>
+          <t>⚠️ BLM401 - Bilgisayar Ağları: Uygun slot veya derslik bulunamadı.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MAT255 - Lineer Cebir</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>selim bzokurt lab</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>25.10.2025</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>09:00</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Vize</t>
+          <t>⚠️ BLM405 - İş Hayatı ve İş Güvenliğine Hazırlık: Uygun slot veya derslik bulunamadı.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>EEE301 - Sinyaller ve Sistemler</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Atatürk ilkeleri ve inklab</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>25.10.2025</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>11:00</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Vize</t>
+          <t>⚠️ BLM417 - Programlanabilir Yapılar: Uygun slot veya derslik bulunamadı.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>HIST402 - Yakın Çağ Tarihi</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>selimbozkuert</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>26.10.2025</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>09:00</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Vize</t>
+          <t>⚠️ BLM421 - Yazılım Proje Yönetimi: Uygun slot veya derslik bulunamadı.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>PHYS102 - Fizik II</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Atatürk ilkeleri ve inklab</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>22.10.2025</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>09:00</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Vize</t>
+          <t>⚠️ BLM449 - Bilgisayarlı Görmenin Temelleri: Uygun slot veya derslik bulunamadı.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CENG312 - Veritabanı Sistemleri</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>selim bzokurt lab</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>26.10.2025</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>09:00</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Vize</t>
+          <t>⚠️ BLM429 - Veri Madenciliğine Giriş: Uygun slot veya derslik bulunamadı.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>TURK101 - Türk Dili I</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>selimbozkuert</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>23.10.2025</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>09:00</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Vize</t>
+          <t>⚠️ BLM441 - Mobil Programlama: Uygun slot veya derslik bulunamadı.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>⚠️ MUH445 - Mühendisler için İstatistik: Uygun slot veya derslik bulunamadı.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>⚠️ BLM451 - Derin Öğrenmenin Temelleri: Uygun slot veya derslik bulunamadı.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>⚠️ BLM443 - Doğal Dil İşleme ve Metin Madenciliğine Giriş: Uygun slot veya derslik bulunamadı.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>⚠️ MUH413 - Gezgin Robotlara Giriş: Uygun slot veya derslik bulunamadı.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>⚠️ BLM435 - Biyoinformatiğe Giriş: Uygun slot veya derslik bulunamadı.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>⚠️ BLM411 - Bilgisayar Semineri: Uygun slot veya derslik bulunamadı.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: CSE101 - Programlamaya Giriş</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: CSE201 - Veri Yapıları</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: CSE305 - Görüntü İşleme</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: SBE202 - İşletme Yönetimi</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: CSE410 - Yapay Zeka</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: CENG101 - Programlamaya Giriş</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: MAT255 - Lineer Cebir</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: EEE301 - Sinyaller ve Sistemler</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: HIST402 - Yakın Çağ Tarihi</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: PHYS102 - Fizik II</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: CENG312 - Veritabanı Sistemleri</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: TURK101 - Türk Dili I</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: ÖĞRENCI NO - Ad Soyad</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 210059017 - Cansu Bozkurt</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 210125266 - Yaren Öztürk</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 210278062 - Nimet Duman</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 211328091 - Can Kavruk</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 211773277 - Tunahan Ayrancı</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 212048186 - Pırıl Özdemir</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 213399180 - Doruk Yılmaz</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 213663624 - Gül Dal</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 214136526 - Emine Kocaman</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 214284442 - Oya Dal</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 215247358 - Mahir Uçar</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 215302323 - Doruk Eren</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 215614302 - Tunahan Ergin</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 216869952 - Eren Karaca</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 218164354 - Lale Özdemir</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 218201546 - Dilara Dağ</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 218219647 - Bora Yurttaş</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 218310535 - Nalan Turan</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 218447924 - Gaye Yavuz</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 219986171 - Melis Çelik</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 220078914 - Işıl Yılmaz</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 220109369 - Hüseyin Koç</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 220139266 - İrem Arslan</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 220258809 - Okan Sarı</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 220321078 - Sena Sarı</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 220464507 - Batuhan Sezer</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 220498841 - Nevin Şahin</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 220619832 - Rüveyda Ayrancı</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 220836108 - Bora Yılmaz</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 220883265 - Sude Giray</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 221128496 - Sevgi Bilgili</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 221144804 - Tarık Altun</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 221583530 - Okan Yalçın</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 221585483 - Tolga Keskin</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 221784591 - Naz İnce</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 221910421 - Yusuf Elmas</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 222039279 - Rabia Bilgili</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 222221959 - Büşranur Duman</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 222355352 - Emine Işık</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 222475327 - Cem Karaca</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 223268483 - Umutcan Yıldız</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 223358634 - Umutcan Ermiş</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 223548408 - Mahir Turan</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 223613198 - Uğur Keskin</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 223832642 - Jale Giray</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 224006728 - Ali Korkmaz</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 224077615 - İnci Kavruk</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 224343007 - Onur Bulut</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 224566011 - Rabia Özer</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 224615473 - Nevin Çevik</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 224786836 - Hazal Aslan</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 224804045 - Nazlı Yavuz</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 224950030 - Hüseyin Güneş</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 224976950 - Selin Gür</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 225200257 - Onur Kavruk</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 225282515 - Kerem Çetin</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 225570196 - Arif Özkan</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 225727763 - Kemal Elmas</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 226023722 - Melis Gündem</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 226094995 - Barış Dağ</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 226228504 - Pelin Yılmaz</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 226379811 - Halil Mutlu</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 226430981 - Beste Özdemir</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 226587989 - Melis Albayrak</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 226685268 - Veli Yılmaz</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 226745251 - Melis Ayrancı</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 227010597 - Ayşe Çetin</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 227066374 - Kemal Koca</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 227140255 - Efe Aydın</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 227155611 - Beyza Arslan</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 227570752 - Umutcan Gazi</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 227744306 - Yağmur Aslan</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 227853730 - Nalan Göksu</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 227915165 - Ekin Özer</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 228036566 - Yaren Koç</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 228049540 - Gizem Türkmen</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 228159513 - Sena Arslan</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 228489104 - Selin Keskin</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 228490603 - Yaşar Erden</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 228793608 - Ayşe Özkan</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 228837878 - Selin Işık</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 228864198 - Kerem Güner</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 228970964 - Gökhan Karatay</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 229081816 - Hakan Çakır</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 229235763 - Nil Çelik</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 229290315 - Cahit Ateşoğlu</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 229343621 - Cahit Kartal</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 229409205 - Halil Ermiş</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 229560325 - Ömer Korkut</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 229570715 - Mustafa Yurttaş</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 229658787 - Zeynep Su Güner</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 229758218 - Efe Kocaman</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 229813457 - Yaren Başaran</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 229871318 - İrem Aydın</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 229914792 - Gizem Yavuz</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 229920599 - Gaye Keskin</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 229932688 - Sude Aydoğdu</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 229963317 - Said Ekinci</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 229977738 - Derya Korkmaz</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 229992428 - Tuğçe Ateşoğlu</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 230041779 - Gizem Aydın</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 230373602 - Zeynep Şahin</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 230515139 - Uğur Gündüz</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 230532959 - Berke Taş</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 230717286 - Bora Karatay</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 230740689 - Sıla Kara</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 230882836 - Selin Ay</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 230968138 - Ekin Altun</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 230969860 - Hakan Çetin</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 231036911 - Taylan Taş</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 231121675 - Yağmur Gündüz</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 231124878 - Elif Gürbüz</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 231152076 - Elif Tuna</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 231202516 - Bora Özkan</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 231216138 - Beyza Işık</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 231602952 - Can Kurt</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 231742942 - Yaren Çetin</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 231936029 - Selinay Dağ</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 231951027 - Işıl Bilgin</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 232464321 - Doğukan Görgün</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 232712330 - Halil Çelik</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 232733394 - Halil Karatay</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 232839506 - Nehir Kartal</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 233068035 - Taylan Bağcı</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 233431518 - Kerem Koca</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 233592334 - Hazal Güneş</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 233637611 - Selinay Çevik</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 233749348 - Sena Şahin</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 233974738 - Cem Mutlu</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 234187462 - Ulaş Ayrancı</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 234254185 - İrem Cansız</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 234290941 - Burak Yılmaz</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 234375991 - Arif Balcı</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 234383882 - Can Albayrak</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 234751366 - Dilara Turan</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 234944940 - Zehra Gündüz</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 234996420 - Melis Görgün</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 235175489 - Efe Karaca</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 235194878 - Halil Ay</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 235278934 - Sude Yıldız</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 235439836 - Kerem Bilgin</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 235613443 - Mahir Özdemir</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 235626902 - Baran Kaplan</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 235629323 - İrem Aslan</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 235633093 - Pelin Özer</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 235968489 - Gül Aydın</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 236131375 - Veli Ateş</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 236153995 - Kübra Altun</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 236384878 - Nimet Gündem</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 236418204 - Lale Yurttaş</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 236499246 - Şevval Can</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 236721552 - Deniz İlhan</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 236749697 - İrem Gazi</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 236921301 - Büşranur Güneş</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 236974704 - Yağmur Alkan</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 237192886 - Burak Gündüz</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 237202900 - Dilara Türkmen</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 237227079 - Beste Güner</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 237275628 - Yağmur Bulut</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 237286698 - Nimet Avcı</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 237422937 - Fatma Bulut</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 237425130 - Veli Erden</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 237532637 - Ali Yurttaş</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 237564411 - Rüveyda Kartal</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 237846824 - Rüveyda Çelik</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 237978002 - Batuhan Arı</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 238214946 - İlknur Erdoğan</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 238217274 - Nehir Alkan</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 238221648 - Yaren Alkan</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 238764026 - Samet Gündüz</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 238767165 - Melis Akyüz</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 238774635 - Hüseyin Ay</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 238840837 - Ulaş Altun</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 239203321 - Berke Uzun</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 239317835 - Deniz Cansız</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 239333017 - Bade Bulut</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 239359600 - Onur Ergin</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 239375542 - Cansu Doğan</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 239714014 - Gül Bilgin</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 239906218 - Onur Başaran</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 240000951 - Elif İlhan</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 240066884 - Mustafa Kartal</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 240186782 - Bade Köse</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 240250534 - İlknur Korkmaz</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 240414230 - Ayşe Türkmen</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 240532013 - Pelin Su Avcı</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 240680651 - Nehir Bilgili</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 240685378 - Gaye Ergin</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 240707818 - Kaan Kara</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 240806634 - Yaşar Polat</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 241148790 - Defne Baş</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 241258462 - Tarık Yavuz</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 241337625 - İclal Aslan</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 241542682 - Hazal Bayraktar</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 241638434 - Nil Ergin</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 241871136 - Nisa Ateşoğlu</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 241938907 - Said Özer</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 241995748 - Yağmur Bağcı</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 242016423 - Ece Doğan</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 242254479 - Bora Keskin</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 242341346 - Kerem Çelik</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 242410819 - Mustafa Kavak</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 242447968 - Hilal Akyüz</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 242693618 - Melis Dağ</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 242733726 - Ömer Aslan</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 242929404 - Ali Demir</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 242948572 - Yalın Eren</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 243278304 - Cansu Başaran</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 243386076 - Okan Erden</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 243442513 - Fatma Gür</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 243570986 - Kerem Yalçın</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 243632834 - Batuhan Gürbüz</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 243670440 - Sıla Bilgili</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 243840708 - Bora Kaplan</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 243992553 - Zeynep Su Güneş</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 244003412 - Yaşar Kurt</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 244066975 - Fatma Koç</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 244203341 - Emine Cansız</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 244440563 - Nimet Erol</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 244629768 - Sıla Özdemir</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 244671996 - İlknur Bozkurt</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 244734828 - Mahir Kavak</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 244846609 - Cansu Kaya</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 245125568 - Berk Ayrancı</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 245134870 - Ahmet Kavruk</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 245175165 - Büşranur Göksu</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 245208144 - Yalın Dal</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 245286918 - Selinay Baş</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 245297501 - Pelin Akyüz</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 245342424 - Hazal Polat</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 245748750 - Berk Avcı</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 246391006 - Cansu Karaca</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 246500334 - Arif Kurt</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 246507999 - Nazlı Yılmaz</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 246867449 - Berk Aslan</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 247116867 - Naz Ayrancı</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 247176093 - Hakan Çevik</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 247212487 - Eylül Sezer</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 247722507 - Gamze Uçar</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 247899948 - Zeynep Su Yıldız</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 247971313 - Veli Keskin</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 248013402 - Gaye Yıldız</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 248071562 - Dilara Turan</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 248193265 - Ekin Karatay</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 248223696 - Rabia Ay</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 248501267 - Gamze Candan</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 248554788 - Naz Koca</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 248700624 - Oya Köse</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 248847511 - Gizem Aslan</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 248950090 - Efe Ekinci</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 249031182 - Mahir Erol</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 249080092 - Gökhan Elmas</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 249224386 - Sinem Karatay</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 249255664 - Yalın Öztürk</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 249260320 - Sadık Erden</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 249267208 - Büşra Çakır</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 249295623 - Hilal Baş</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 249871522 - Sadık Bayraktar</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 249938281 - Pelin Su Bozkurt</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 249997326 - Nehir Kurt</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 250053491 - Dilara Güler</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 250201664 - Sevgi Güneş</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 250431592 - Kübra Türkmen</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 250446494 - Nazlı Kavak</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 250701939 - Sude Altun</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 250808785 - Cem Başaran</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 250947598 - Volkan Özkan</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 251001097 - Bora Karatay</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 251004514 - Ömer Kara</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 251341076 - Samet Can</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 251416406 - Yağmur Çakır</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 251517263 - Büşra Ay</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 251871506 - Zehra Polat</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 251913569 - Arif İlhan</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 252083387 - Deniz Dinç</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 252175607 - Naz Yıldız</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 252390149 - Yaren Bulut</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 252615128 - Caner Ayrancı</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 252804266 - Cem Can</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 252807838 - Veli Tuna</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 252833068 - Tolga Bozkurt</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 252964363 - Burak Polat</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 253147994 - Işıl Öztürk</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 253195350 - Pırıl Candan</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 253498381 - Pelin Kartal</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 253609636 - Oya Dağ</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 253646838 - Sinem Kurt</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 253907239 - İlknur Erol</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 254175487 - Mahir Özkan</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 254346045 - Ömer Gazi</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 254417195 - Yaren Erol</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 254481230 - Samet Eren</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 254554955 - Ahmet Elmas</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 254598870 - Yalın Aydın</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 254626612 - Hakan Türkmen</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 254648767 - İlknur Köse</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 254703174 - Tolga Gürbüz</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 254704500 - Halil Gündüz</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 254755377 - Can Ergin</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 255043673 - Naz Güner</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 255185754 - Nehir Özdemir</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 255414797 - Merve Aydoğdu</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 255425198 - Büşranur Balcı</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 255524883 - Doğukan Keleş</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 255636174 - Tunahan Balcı</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 255785478 - Uğur Erdoğan</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 255838940 - Veli Köse</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 256056644 - Yağmur Koç</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 256250663 - Tolga Bulut</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 256377736 - Taylan Keleş</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 256593449 - Bade Erden</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 256667874 - Merve Dağ</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 256758578 - Berke Duman</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 256779735 - Nalan Candan</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 256882869 - Samet Kaya</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 256911205 - Halil Dinç</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 257059819 - Cansu Ay</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 257063251 - Yaren Sezer</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 257137420 - Yiğit Köse</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 257363404 - Mustafa Özdemir</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 257370824 - Hazal Çetin</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 257371132 - Fatma Arı</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 257529024 - Zeynep Arı</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 257593548 - İnci Ekinci</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 257798849 - Nalan Erdoğan</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 257890198 - Taylan Gündüz</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 257974792 - Nevin Avcı</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 258002494 - Doğukan Arı</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 258120859 - Ulaş Çakır</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 258345984 - Büşranur Kaplan</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 258650585 - Mustafa Özkan</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 258822098 - Gül Erol</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 258989622 - Gül Giray</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 258992791 - Fatma İlhan</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 259112806 - Said Ateşoğlu</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 259283899 - Derya Yıldız</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 259399325 - Umut Güneş</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 259592001 - Taha Turan</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 259677430 - Eren Yalçın</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 259757258 - Nil Öztürk</t>
         </is>
       </c>
     </row>

--- a/sinav_programi.xlsx
+++ b/sinav_programi.xlsx
@@ -467,7 +467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,6 +480,7 @@
     <col width="20" customWidth="1" min="3" max="3"/>
     <col width="20" customWidth="1" min="4" max="4"/>
     <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -505,6 +506,11 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Süre (dk)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Tür</t>
         </is>
       </c>
@@ -522,7 +528,7 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>27.10.2025</t>
+          <t>28.10.2025</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
@@ -530,9 +536,12 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>Bütünleme</t>
+      <c r="E2" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>Vize</t>
         </is>
       </c>
     </row>
@@ -549,7 +558,7 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>27.10.2025</t>
+          <t>28.10.2025</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
@@ -557,9 +566,12 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>Bütünleme</t>
+      <c r="E3" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>Vize</t>
         </is>
       </c>
     </row>
@@ -576,7 +588,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>27.10.2025</t>
+          <t>28.10.2025</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -584,9 +596,12 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>Bütünleme</t>
+      <c r="E4" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>Vize</t>
         </is>
       </c>
     </row>
@@ -603,7 +618,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>27.10.2025</t>
+          <t>28.10.2025</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -611,9 +626,12 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>Bütünleme</t>
+      <c r="E5" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>Vize</t>
         </is>
       </c>
     </row>
@@ -630,7 +648,7 @@
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>28.10.2025</t>
+          <t>29.10.2025</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
@@ -638,9 +656,12 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="E6" s="3" t="inlineStr">
-        <is>
-          <t>Bütünleme</t>
+      <c r="E6" s="3" t="n">
+        <v>75</v>
+      </c>
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>Vize</t>
         </is>
       </c>
     </row>
@@ -657,7 +678,7 @@
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>28.10.2025</t>
+          <t>29.10.2025</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
@@ -665,9 +686,12 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="E7" s="3" t="inlineStr">
-        <is>
-          <t>Bütünleme</t>
+      <c r="E7" s="3" t="n">
+        <v>75</v>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>Vize</t>
         </is>
       </c>
     </row>
@@ -684,7 +708,7 @@
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>28.10.2025</t>
+          <t>29.10.2025</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
@@ -692,9 +716,12 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="E8" s="3" t="inlineStr">
-        <is>
-          <t>Bütünleme</t>
+      <c r="E8" s="3" t="n">
+        <v>75</v>
+      </c>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>Vize</t>
         </is>
       </c>
     </row>
@@ -711,7 +738,7 @@
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>28.10.2025</t>
+          <t>29.10.2025</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
@@ -719,9 +746,12 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="E9" s="3" t="inlineStr">
-        <is>
-          <t>Bütünleme</t>
+      <c r="E9" s="3" t="n">
+        <v>75</v>
+      </c>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>Vize</t>
         </is>
       </c>
     </row>
@@ -738,7 +768,7 @@
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t>29.10.2025</t>
+          <t>30.10.2025</t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
@@ -746,9 +776,12 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="E10" s="4" t="inlineStr">
-        <is>
-          <t>Bütünleme</t>
+      <c r="E10" s="4" t="n">
+        <v>75</v>
+      </c>
+      <c r="F10" s="4" t="inlineStr">
+        <is>
+          <t>Vize</t>
         </is>
       </c>
     </row>
@@ -765,7 +798,7 @@
       </c>
       <c r="C11" s="4" t="inlineStr">
         <is>
-          <t>29.10.2025</t>
+          <t>30.10.2025</t>
         </is>
       </c>
       <c r="D11" s="4" t="inlineStr">
@@ -773,9 +806,12 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="E11" s="4" t="inlineStr">
-        <is>
-          <t>Bütünleme</t>
+      <c r="E11" s="4" t="n">
+        <v>75</v>
+      </c>
+      <c r="F11" s="4" t="inlineStr">
+        <is>
+          <t>Vize</t>
         </is>
       </c>
     </row>
@@ -792,7 +828,7 @@
       </c>
       <c r="C12" s="4" t="inlineStr">
         <is>
-          <t>29.10.2025</t>
+          <t>30.10.2025</t>
         </is>
       </c>
       <c r="D12" s="4" t="inlineStr">
@@ -800,9 +836,12 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="E12" s="4" t="inlineStr">
-        <is>
-          <t>Bütünleme</t>
+      <c r="E12" s="4" t="n">
+        <v>75</v>
+      </c>
+      <c r="F12" s="4" t="inlineStr">
+        <is>
+          <t>Vize</t>
         </is>
       </c>
     </row>
@@ -819,7 +858,7 @@
       </c>
       <c r="C13" s="4" t="inlineStr">
         <is>
-          <t>29.10.2025</t>
+          <t>30.10.2025</t>
         </is>
       </c>
       <c r="D13" s="4" t="inlineStr">
@@ -827,9 +866,12 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="E13" s="4" t="inlineStr">
-        <is>
-          <t>Bütünleme</t>
+      <c r="E13" s="4" t="n">
+        <v>75</v>
+      </c>
+      <c r="F13" s="4" t="inlineStr">
+        <is>
+          <t>Vize</t>
         </is>
       </c>
     </row>
@@ -846,7 +888,7 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>30.10.2025</t>
+          <t>31.10.2025</t>
         </is>
       </c>
       <c r="D14" s="5" t="inlineStr">
@@ -854,9 +896,12 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="E14" s="5" t="inlineStr">
-        <is>
-          <t>Bütünleme</t>
+      <c r="E14" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="F14" s="5" t="inlineStr">
+        <is>
+          <t>Vize</t>
         </is>
       </c>
     </row>
@@ -873,7 +918,7 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>30.10.2025</t>
+          <t>31.10.2025</t>
         </is>
       </c>
       <c r="D15" s="5" t="inlineStr">
@@ -881,9 +926,12 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="E15" s="5" t="inlineStr">
-        <is>
-          <t>Bütünleme</t>
+      <c r="E15" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="F15" s="5" t="inlineStr">
+        <is>
+          <t>Vize</t>
         </is>
       </c>
     </row>
@@ -900,7 +948,7 @@
       </c>
       <c r="C16" s="5" t="inlineStr">
         <is>
-          <t>30.10.2025</t>
+          <t>31.10.2025</t>
         </is>
       </c>
       <c r="D16" s="5" t="inlineStr">
@@ -908,9 +956,12 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="E16" s="5" t="inlineStr">
-        <is>
-          <t>Bütünleme</t>
+      <c r="E16" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="F16" s="5" t="inlineStr">
+        <is>
+          <t>Vize</t>
         </is>
       </c>
     </row>
@@ -927,7 +978,7 @@
       </c>
       <c r="C17" s="5" t="inlineStr">
         <is>
-          <t>30.10.2025</t>
+          <t>31.10.2025</t>
         </is>
       </c>
       <c r="D17" s="5" t="inlineStr">
@@ -935,26 +986,29 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="E17" s="5" t="inlineStr">
-        <is>
-          <t>Bütünleme</t>
+      <c r="E17" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="F17" s="5" t="inlineStr">
+        <is>
+          <t>Vize</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>MUH301 - Sayısal Yöntemler</t>
+          <t>MAT101 - Matematik I</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>selimbozkuert</t>
+          <t>Atatürk ilkeleri ve inklab</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>31.10.2025</t>
+          <t>28.10.2025</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -962,117 +1016,12 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>Bütünleme</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="inlineStr">
-        <is>
-          <t>BLM303 - İşaret ve Sistemler</t>
-        </is>
-      </c>
-      <c r="B19" s="2" t="inlineStr">
-        <is>
-          <t>selimbozkuert</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>31.10.2025</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>11:00</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>Bütünleme</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>BLM305 - İşletim Sistemleri</t>
-        </is>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
-        <is>
-          <t>selimbozkuert</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>31.10.2025</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>Bütünleme</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>BLM325 - Mikroişlemci Sistemleri</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>selimbozkuert</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>31.10.2025</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>Bütünleme</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="inlineStr">
-        <is>
-          <t>MAT101 - Matematik I</t>
-        </is>
-      </c>
-      <c r="B22" s="2" t="inlineStr">
-        <is>
-          <t>Atatürk ilkeleri ve inklab</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>27.10.2025</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>09:00</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>Bütünleme</t>
+      <c r="E18" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>Vize</t>
         </is>
       </c>
     </row>
@@ -1115,7 +1064,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2000/20 sınav</t>
+          <t>1600/16 sınav</t>
         </is>
       </c>
     </row>
@@ -1142,7 +1091,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A373"/>
+  <dimension ref="A1:A377"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1160,2602 +1109,2630 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>⚠️ BLM307 - Yazılım Laboratuvarı I: Uygun slot veya derslik bulunamadı.</t>
+          <t>⚠️ MUH301 - Sayısal Yöntemler: Uygun slot veya derslik bulunamadı.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>⚠️ BLM309 - Staj II: Uygun slot veya derslik bulunamadı.</t>
+          <t>⚠️ BLM303 - İşaret ve Sistemler: Uygun slot veya derslik bulunamadı.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>⚠️ BLM323 - Bilgi Güvenliği ve Kriptografi: Uygun slot veya derslik bulunamadı.</t>
+          <t>⚠️ BLM305 - İşletim Sistemleri: Uygun slot veya derslik bulunamadı.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>⚠️ BLM321 - Robotlar için Matematik Temelleri: Uygun slot veya derslik bulunamadı.</t>
+          <t>⚠️ BLM325 - Mikroişlemci Sistemleri: Uygun slot veya derslik bulunamadı.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>⚠️ MUH403 - Araştırma Problemleri: Uygun slot veya derslik bulunamadı.</t>
+          <t>⚠️ BLM307 - Yazılım Laboratuvarı I: Uygun slot veya derslik bulunamadı.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>⚠️ MUH402 - Bitirme Çalışması: Uygun slot veya derslik bulunamadı.</t>
+          <t>⚠️ BLM309 - Staj II: Uygun slot veya derslik bulunamadı.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>⚠️ BLM401 - Bilgisayar Ağları: Uygun slot veya derslik bulunamadı.</t>
+          <t>⚠️ BLM323 - Bilgi Güvenliği ve Kriptografi: Uygun slot veya derslik bulunamadı.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>⚠️ BLM405 - İş Hayatı ve İş Güvenliğine Hazırlık: Uygun slot veya derslik bulunamadı.</t>
+          <t>⚠️ BLM321 - Robotlar için Matematik Temelleri: Uygun slot veya derslik bulunamadı.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>⚠️ BLM417 - Programlanabilir Yapılar: Uygun slot veya derslik bulunamadı.</t>
+          <t>⚠️ MUH403 - Araştırma Problemleri: Uygun slot veya derslik bulunamadı.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>⚠️ BLM421 - Yazılım Proje Yönetimi: Uygun slot veya derslik bulunamadı.</t>
+          <t>⚠️ MUH402 - Bitirme Çalışması: Uygun slot veya derslik bulunamadı.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>⚠️ BLM449 - Bilgisayarlı Görmenin Temelleri: Uygun slot veya derslik bulunamadı.</t>
+          <t>⚠️ BLM401 - Bilgisayar Ağları: Uygun slot veya derslik bulunamadı.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>⚠️ BLM429 - Veri Madenciliğine Giriş: Uygun slot veya derslik bulunamadı.</t>
+          <t>⚠️ BLM405 - İş Hayatı ve İş Güvenliğine Hazırlık: Uygun slot veya derslik bulunamadı.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>⚠️ BLM441 - Mobil Programlama: Uygun slot veya derslik bulunamadı.</t>
+          <t>⚠️ BLM417 - Programlanabilir Yapılar: Uygun slot veya derslik bulunamadı.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>⚠️ MUH445 - Mühendisler için İstatistik: Uygun slot veya derslik bulunamadı.</t>
+          <t>⚠️ BLM421 - Yazılım Proje Yönetimi: Uygun slot veya derslik bulunamadı.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>⚠️ BLM451 - Derin Öğrenmenin Temelleri: Uygun slot veya derslik bulunamadı.</t>
+          <t>⚠️ BLM449 - Bilgisayarlı Görmenin Temelleri: Uygun slot veya derslik bulunamadı.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>⚠️ BLM443 - Doğal Dil İşleme ve Metin Madenciliğine Giriş: Uygun slot veya derslik bulunamadı.</t>
+          <t>⚠️ BLM429 - Veri Madenciliğine Giriş: Uygun slot veya derslik bulunamadı.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>⚠️ MUH413 - Gezgin Robotlara Giriş: Uygun slot veya derslik bulunamadı.</t>
+          <t>⚠️ BLM441 - Mobil Programlama: Uygun slot veya derslik bulunamadı.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>⚠️ BLM435 - Biyoinformatiğe Giriş: Uygun slot veya derslik bulunamadı.</t>
+          <t>⚠️ MUH445 - Mühendisler için İstatistik: Uygun slot veya derslik bulunamadı.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>⚠️ BLM411 - Bilgisayar Semineri: Uygun slot veya derslik bulunamadı.</t>
+          <t>⚠️ BLM451 - Derin Öğrenmenin Temelleri: Uygun slot veya derslik bulunamadı.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: CSE101 - Programlamaya Giriş</t>
+          <t>⚠️ BLM443 - Doğal Dil İşleme ve Metin Madenciliğine Giriş: Uygun slot veya derslik bulunamadı.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: CSE201 - Veri Yapıları</t>
+          <t>⚠️ MUH413 - Gezgin Robotlara Giriş: Uygun slot veya derslik bulunamadı.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: CSE305 - Görüntü İşleme</t>
+          <t>⚠️ BLM435 - Biyoinformatiğe Giriş: Uygun slot veya derslik bulunamadı.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: SBE202 - İşletme Yönetimi</t>
+          <t>⚠️ BLM411 - Bilgisayar Semineri: Uygun slot veya derslik bulunamadı.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: CSE410 - Yapay Zeka</t>
+          <t>Öğrencisiz ders: CSE101 - Programlamaya Giriş</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: CENG101 - Programlamaya Giriş</t>
+          <t>Öğrencisiz ders: CSE201 - Veri Yapıları</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: MAT255 - Lineer Cebir</t>
+          <t>Öğrencisiz ders: CSE305 - Görüntü İşleme</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: EEE301 - Sinyaller ve Sistemler</t>
+          <t>Öğrencisiz ders: SBE202 - İşletme Yönetimi</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: HIST402 - Yakın Çağ Tarihi</t>
+          <t>Öğrencisiz ders: CSE410 - Yapay Zeka</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: PHYS102 - Fizik II</t>
+          <t>Öğrencisiz ders: CENG101 - Programlamaya Giriş</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: CENG312 - Veritabanı Sistemleri</t>
+          <t>Öğrencisiz ders: MAT255 - Lineer Cebir</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: TURK101 - Türk Dili I</t>
+          <t>Öğrencisiz ders: EEE301 - Sinyaller ve Sistemler</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: ÖĞRENCI NO - Ad Soyad</t>
+          <t>Öğrencisiz ders: HIST402 - Yakın Çağ Tarihi</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 210059017 - Cansu Bozkurt</t>
+          <t>Öğrencisiz ders: PHYS102 - Fizik II</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 210125266 - Yaren Öztürk</t>
+          <t>Öğrencisiz ders: CENG312 - Veritabanı Sistemleri</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 210278062 - Nimet Duman</t>
+          <t>Öğrencisiz ders: TURK101 - Türk Dili I</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 211328091 - Can Kavruk</t>
+          <t>Öğrencisiz ders: ÖĞRENCI NO - Ad Soyad</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 211773277 - Tunahan Ayrancı</t>
+          <t>Öğrencisiz ders: 210059017 - Cansu Bozkurt</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 212048186 - Pırıl Özdemir</t>
+          <t>Öğrencisiz ders: 210125266 - Yaren Öztürk</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 213399180 - Doruk Yılmaz</t>
+          <t>Öğrencisiz ders: 210278062 - Nimet Duman</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 213663624 - Gül Dal</t>
+          <t>Öğrencisiz ders: 211328091 - Can Kavruk</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 214136526 - Emine Kocaman</t>
+          <t>Öğrencisiz ders: 211773277 - Tunahan Ayrancı</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 214284442 - Oya Dal</t>
+          <t>Öğrencisiz ders: 212048186 - Pırıl Özdemir</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 215247358 - Mahir Uçar</t>
+          <t>Öğrencisiz ders: 213399180 - Doruk Yılmaz</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 215302323 - Doruk Eren</t>
+          <t>Öğrencisiz ders: 213663624 - Gül Dal</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 215614302 - Tunahan Ergin</t>
+          <t>Öğrencisiz ders: 214136526 - Emine Kocaman</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 216869952 - Eren Karaca</t>
+          <t>Öğrencisiz ders: 214284442 - Oya Dal</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 218164354 - Lale Özdemir</t>
+          <t>Öğrencisiz ders: 215247358 - Mahir Uçar</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 218201546 - Dilara Dağ</t>
+          <t>Öğrencisiz ders: 215302323 - Doruk Eren</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 218219647 - Bora Yurttaş</t>
+          <t>Öğrencisiz ders: 215614302 - Tunahan Ergin</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 218310535 - Nalan Turan</t>
+          <t>Öğrencisiz ders: 216869952 - Eren Karaca</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 218447924 - Gaye Yavuz</t>
+          <t>Öğrencisiz ders: 218164354 - Lale Özdemir</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 219986171 - Melis Çelik</t>
+          <t>Öğrencisiz ders: 218201546 - Dilara Dağ</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 220078914 - Işıl Yılmaz</t>
+          <t>Öğrencisiz ders: 218219647 - Bora Yurttaş</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 220109369 - Hüseyin Koç</t>
+          <t>Öğrencisiz ders: 218310535 - Nalan Turan</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 220139266 - İrem Arslan</t>
+          <t>Öğrencisiz ders: 218447924 - Gaye Yavuz</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 220258809 - Okan Sarı</t>
+          <t>Öğrencisiz ders: 219986171 - Melis Çelik</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 220321078 - Sena Sarı</t>
+          <t>Öğrencisiz ders: 220078914 - Işıl Yılmaz</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 220464507 - Batuhan Sezer</t>
+          <t>Öğrencisiz ders: 220109369 - Hüseyin Koç</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 220498841 - Nevin Şahin</t>
+          <t>Öğrencisiz ders: 220139266 - İrem Arslan</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 220619832 - Rüveyda Ayrancı</t>
+          <t>Öğrencisiz ders: 220258809 - Okan Sarı</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 220836108 - Bora Yılmaz</t>
+          <t>Öğrencisiz ders: 220321078 - Sena Sarı</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 220883265 - Sude Giray</t>
+          <t>Öğrencisiz ders: 220464507 - Batuhan Sezer</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 221128496 - Sevgi Bilgili</t>
+          <t>Öğrencisiz ders: 220498841 - Nevin Şahin</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 221144804 - Tarık Altun</t>
+          <t>Öğrencisiz ders: 220619832 - Rüveyda Ayrancı</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 221583530 - Okan Yalçın</t>
+          <t>Öğrencisiz ders: 220836108 - Bora Yılmaz</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 221585483 - Tolga Keskin</t>
+          <t>Öğrencisiz ders: 220883265 - Sude Giray</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 221784591 - Naz İnce</t>
+          <t>Öğrencisiz ders: 221128496 - Sevgi Bilgili</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 221910421 - Yusuf Elmas</t>
+          <t>Öğrencisiz ders: 221144804 - Tarık Altun</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 222039279 - Rabia Bilgili</t>
+          <t>Öğrencisiz ders: 221583530 - Okan Yalçın</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 222221959 - Büşranur Duman</t>
+          <t>Öğrencisiz ders: 221585483 - Tolga Keskin</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 222355352 - Emine Işık</t>
+          <t>Öğrencisiz ders: 221784591 - Naz İnce</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 222475327 - Cem Karaca</t>
+          <t>Öğrencisiz ders: 221910421 - Yusuf Elmas</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 223268483 - Umutcan Yıldız</t>
+          <t>Öğrencisiz ders: 222039279 - Rabia Bilgili</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 223358634 - Umutcan Ermiş</t>
+          <t>Öğrencisiz ders: 222221959 - Büşranur Duman</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 223548408 - Mahir Turan</t>
+          <t>Öğrencisiz ders: 222355352 - Emine Işık</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 223613198 - Uğur Keskin</t>
+          <t>Öğrencisiz ders: 222475327 - Cem Karaca</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 223832642 - Jale Giray</t>
+          <t>Öğrencisiz ders: 223268483 - Umutcan Yıldız</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 224006728 - Ali Korkmaz</t>
+          <t>Öğrencisiz ders: 223358634 - Umutcan Ermiş</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 224077615 - İnci Kavruk</t>
+          <t>Öğrencisiz ders: 223548408 - Mahir Turan</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 224343007 - Onur Bulut</t>
+          <t>Öğrencisiz ders: 223613198 - Uğur Keskin</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 224566011 - Rabia Özer</t>
+          <t>Öğrencisiz ders: 223832642 - Jale Giray</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 224615473 - Nevin Çevik</t>
+          <t>Öğrencisiz ders: 224006728 - Ali Korkmaz</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 224786836 - Hazal Aslan</t>
+          <t>Öğrencisiz ders: 224077615 - İnci Kavruk</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 224804045 - Nazlı Yavuz</t>
+          <t>Öğrencisiz ders: 224343007 - Onur Bulut</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 224950030 - Hüseyin Güneş</t>
+          <t>Öğrencisiz ders: 224566011 - Rabia Özer</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 224976950 - Selin Gür</t>
+          <t>Öğrencisiz ders: 224615473 - Nevin Çevik</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 225200257 - Onur Kavruk</t>
+          <t>Öğrencisiz ders: 224786836 - Hazal Aslan</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 225282515 - Kerem Çetin</t>
+          <t>Öğrencisiz ders: 224804045 - Nazlı Yavuz</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 225570196 - Arif Özkan</t>
+          <t>Öğrencisiz ders: 224950030 - Hüseyin Güneş</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 225727763 - Kemal Elmas</t>
+          <t>Öğrencisiz ders: 224976950 - Selin Gür</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 226023722 - Melis Gündem</t>
+          <t>Öğrencisiz ders: 225200257 - Onur Kavruk</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 226094995 - Barış Dağ</t>
+          <t>Öğrencisiz ders: 225282515 - Kerem Çetin</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 226228504 - Pelin Yılmaz</t>
+          <t>Öğrencisiz ders: 225570196 - Arif Özkan</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 226379811 - Halil Mutlu</t>
+          <t>Öğrencisiz ders: 225727763 - Kemal Elmas</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 226430981 - Beste Özdemir</t>
+          <t>Öğrencisiz ders: 226023722 - Melis Gündem</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 226587989 - Melis Albayrak</t>
+          <t>Öğrencisiz ders: 226094995 - Barış Dağ</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 226685268 - Veli Yılmaz</t>
+          <t>Öğrencisiz ders: 226228504 - Pelin Yılmaz</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 226745251 - Melis Ayrancı</t>
+          <t>Öğrencisiz ders: 226379811 - Halil Mutlu</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 227010597 - Ayşe Çetin</t>
+          <t>Öğrencisiz ders: 226430981 - Beste Özdemir</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 227066374 - Kemal Koca</t>
+          <t>Öğrencisiz ders: 226587989 - Melis Albayrak</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 227140255 - Efe Aydın</t>
+          <t>Öğrencisiz ders: 226685268 - Veli Yılmaz</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 227155611 - Beyza Arslan</t>
+          <t>Öğrencisiz ders: 226745251 - Melis Ayrancı</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 227570752 - Umutcan Gazi</t>
+          <t>Öğrencisiz ders: 227010597 - Ayşe Çetin</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 227744306 - Yağmur Aslan</t>
+          <t>Öğrencisiz ders: 227066374 - Kemal Koca</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 227853730 - Nalan Göksu</t>
+          <t>Öğrencisiz ders: 227140255 - Efe Aydın</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 227915165 - Ekin Özer</t>
+          <t>Öğrencisiz ders: 227155611 - Beyza Arslan</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 228036566 - Yaren Koç</t>
+          <t>Öğrencisiz ders: 227570752 - Umutcan Gazi</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 228049540 - Gizem Türkmen</t>
+          <t>Öğrencisiz ders: 227744306 - Yağmur Aslan</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 228159513 - Sena Arslan</t>
+          <t>Öğrencisiz ders: 227853730 - Nalan Göksu</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 228489104 - Selin Keskin</t>
+          <t>Öğrencisiz ders: 227915165 - Ekin Özer</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 228490603 - Yaşar Erden</t>
+          <t>Öğrencisiz ders: 228036566 - Yaren Koç</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 228793608 - Ayşe Özkan</t>
+          <t>Öğrencisiz ders: 228049540 - Gizem Türkmen</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 228837878 - Selin Işık</t>
+          <t>Öğrencisiz ders: 228159513 - Sena Arslan</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 228864198 - Kerem Güner</t>
+          <t>Öğrencisiz ders: 228489104 - Selin Keskin</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 228970964 - Gökhan Karatay</t>
+          <t>Öğrencisiz ders: 228490603 - Yaşar Erden</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 229081816 - Hakan Çakır</t>
+          <t>Öğrencisiz ders: 228793608 - Ayşe Özkan</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 229235763 - Nil Çelik</t>
+          <t>Öğrencisiz ders: 228837878 - Selin Işık</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 229290315 - Cahit Ateşoğlu</t>
+          <t>Öğrencisiz ders: 228864198 - Kerem Güner</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 229343621 - Cahit Kartal</t>
+          <t>Öğrencisiz ders: 228970964 - Gökhan Karatay</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 229409205 - Halil Ermiş</t>
+          <t>Öğrencisiz ders: 229081816 - Hakan Çakır</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 229560325 - Ömer Korkut</t>
+          <t>Öğrencisiz ders: 229235763 - Nil Çelik</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 229570715 - Mustafa Yurttaş</t>
+          <t>Öğrencisiz ders: 229290315 - Cahit Ateşoğlu</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 229658787 - Zeynep Su Güner</t>
+          <t>Öğrencisiz ders: 229343621 - Cahit Kartal</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 229758218 - Efe Kocaman</t>
+          <t>Öğrencisiz ders: 229409205 - Halil Ermiş</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 229813457 - Yaren Başaran</t>
+          <t>Öğrencisiz ders: 229560325 - Ömer Korkut</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 229871318 - İrem Aydın</t>
+          <t>Öğrencisiz ders: 229570715 - Mustafa Yurttaş</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 229914792 - Gizem Yavuz</t>
+          <t>Öğrencisiz ders: 229658787 - Zeynep Su Güner</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 229920599 - Gaye Keskin</t>
+          <t>Öğrencisiz ders: 229758218 - Efe Kocaman</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 229932688 - Sude Aydoğdu</t>
+          <t>Öğrencisiz ders: 229813457 - Yaren Başaran</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 229963317 - Said Ekinci</t>
+          <t>Öğrencisiz ders: 229871318 - İrem Aydın</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 229977738 - Derya Korkmaz</t>
+          <t>Öğrencisiz ders: 229914792 - Gizem Yavuz</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 229992428 - Tuğçe Ateşoğlu</t>
+          <t>Öğrencisiz ders: 229920599 - Gaye Keskin</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 230041779 - Gizem Aydın</t>
+          <t>Öğrencisiz ders: 229932688 - Sude Aydoğdu</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 230373602 - Zeynep Şahin</t>
+          <t>Öğrencisiz ders: 229963317 - Said Ekinci</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 230515139 - Uğur Gündüz</t>
+          <t>Öğrencisiz ders: 229977738 - Derya Korkmaz</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 230532959 - Berke Taş</t>
+          <t>Öğrencisiz ders: 229992428 - Tuğçe Ateşoğlu</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 230717286 - Bora Karatay</t>
+          <t>Öğrencisiz ders: 230041779 - Gizem Aydın</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 230740689 - Sıla Kara</t>
+          <t>Öğrencisiz ders: 230373602 - Zeynep Şahin</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 230882836 - Selin Ay</t>
+          <t>Öğrencisiz ders: 230515139 - Uğur Gündüz</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 230968138 - Ekin Altun</t>
+          <t>Öğrencisiz ders: 230532959 - Berke Taş</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 230969860 - Hakan Çetin</t>
+          <t>Öğrencisiz ders: 230717286 - Bora Karatay</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 231036911 - Taylan Taş</t>
+          <t>Öğrencisiz ders: 230740689 - Sıla Kara</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 231121675 - Yağmur Gündüz</t>
+          <t>Öğrencisiz ders: 230882836 - Selin Ay</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 231124878 - Elif Gürbüz</t>
+          <t>Öğrencisiz ders: 230968138 - Ekin Altun</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 231152076 - Elif Tuna</t>
+          <t>Öğrencisiz ders: 230969860 - Hakan Çetin</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 231202516 - Bora Özkan</t>
+          <t>Öğrencisiz ders: 231036911 - Taylan Taş</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 231216138 - Beyza Işık</t>
+          <t>Öğrencisiz ders: 231121675 - Yağmur Gündüz</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 231602952 - Can Kurt</t>
+          <t>Öğrencisiz ders: 231124878 - Elif Gürbüz</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 231742942 - Yaren Çetin</t>
+          <t>Öğrencisiz ders: 231152076 - Elif Tuna</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 231936029 - Selinay Dağ</t>
+          <t>Öğrencisiz ders: 231202516 - Bora Özkan</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 231951027 - Işıl Bilgin</t>
+          <t>Öğrencisiz ders: 231216138 - Beyza Işık</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 232464321 - Doğukan Görgün</t>
+          <t>Öğrencisiz ders: 231602952 - Can Kurt</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 232712330 - Halil Çelik</t>
+          <t>Öğrencisiz ders: 231742942 - Yaren Çetin</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 232733394 - Halil Karatay</t>
+          <t>Öğrencisiz ders: 231936029 - Selinay Dağ</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 232839506 - Nehir Kartal</t>
+          <t>Öğrencisiz ders: 231951027 - Işıl Bilgin</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 233068035 - Taylan Bağcı</t>
+          <t>Öğrencisiz ders: 232464321 - Doğukan Görgün</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 233431518 - Kerem Koca</t>
+          <t>Öğrencisiz ders: 232712330 - Halil Çelik</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 233592334 - Hazal Güneş</t>
+          <t>Öğrencisiz ders: 232733394 - Halil Karatay</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 233637611 - Selinay Çevik</t>
+          <t>Öğrencisiz ders: 232839506 - Nehir Kartal</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 233749348 - Sena Şahin</t>
+          <t>Öğrencisiz ders: 233068035 - Taylan Bağcı</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 233974738 - Cem Mutlu</t>
+          <t>Öğrencisiz ders: 233431518 - Kerem Koca</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 234187462 - Ulaş Ayrancı</t>
+          <t>Öğrencisiz ders: 233592334 - Hazal Güneş</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 234254185 - İrem Cansız</t>
+          <t>Öğrencisiz ders: 233637611 - Selinay Çevik</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 234290941 - Burak Yılmaz</t>
+          <t>Öğrencisiz ders: 233749348 - Sena Şahin</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 234375991 - Arif Balcı</t>
+          <t>Öğrencisiz ders: 233974738 - Cem Mutlu</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 234383882 - Can Albayrak</t>
+          <t>Öğrencisiz ders: 234187462 - Ulaş Ayrancı</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 234751366 - Dilara Turan</t>
+          <t>Öğrencisiz ders: 234254185 - İrem Cansız</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 234944940 - Zehra Gündüz</t>
+          <t>Öğrencisiz ders: 234290941 - Burak Yılmaz</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 234996420 - Melis Görgün</t>
+          <t>Öğrencisiz ders: 234375991 - Arif Balcı</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 235175489 - Efe Karaca</t>
+          <t>Öğrencisiz ders: 234383882 - Can Albayrak</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 235194878 - Halil Ay</t>
+          <t>Öğrencisiz ders: 234751366 - Dilara Turan</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 235278934 - Sude Yıldız</t>
+          <t>Öğrencisiz ders: 234944940 - Zehra Gündüz</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 235439836 - Kerem Bilgin</t>
+          <t>Öğrencisiz ders: 234996420 - Melis Görgün</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 235613443 - Mahir Özdemir</t>
+          <t>Öğrencisiz ders: 235175489 - Efe Karaca</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 235626902 - Baran Kaplan</t>
+          <t>Öğrencisiz ders: 235194878 - Halil Ay</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 235629323 - İrem Aslan</t>
+          <t>Öğrencisiz ders: 235278934 - Sude Yıldız</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 235633093 - Pelin Özer</t>
+          <t>Öğrencisiz ders: 235439836 - Kerem Bilgin</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 235968489 - Gül Aydın</t>
+          <t>Öğrencisiz ders: 235613443 - Mahir Özdemir</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 236131375 - Veli Ateş</t>
+          <t>Öğrencisiz ders: 235626902 - Baran Kaplan</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 236153995 - Kübra Altun</t>
+          <t>Öğrencisiz ders: 235629323 - İrem Aslan</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 236384878 - Nimet Gündem</t>
+          <t>Öğrencisiz ders: 235633093 - Pelin Özer</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 236418204 - Lale Yurttaş</t>
+          <t>Öğrencisiz ders: 235968489 - Gül Aydın</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 236499246 - Şevval Can</t>
+          <t>Öğrencisiz ders: 236131375 - Veli Ateş</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 236721552 - Deniz İlhan</t>
+          <t>Öğrencisiz ders: 236153995 - Kübra Altun</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 236749697 - İrem Gazi</t>
+          <t>Öğrencisiz ders: 236384878 - Nimet Gündem</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 236921301 - Büşranur Güneş</t>
+          <t>Öğrencisiz ders: 236418204 - Lale Yurttaş</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 236974704 - Yağmur Alkan</t>
+          <t>Öğrencisiz ders: 236499246 - Şevval Can</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 237192886 - Burak Gündüz</t>
+          <t>Öğrencisiz ders: 236721552 - Deniz İlhan</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 237202900 - Dilara Türkmen</t>
+          <t>Öğrencisiz ders: 236749697 - İrem Gazi</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 237227079 - Beste Güner</t>
+          <t>Öğrencisiz ders: 236921301 - Büşranur Güneş</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 237275628 - Yağmur Bulut</t>
+          <t>Öğrencisiz ders: 236974704 - Yağmur Alkan</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 237286698 - Nimet Avcı</t>
+          <t>Öğrencisiz ders: 237192886 - Burak Gündüz</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 237422937 - Fatma Bulut</t>
+          <t>Öğrencisiz ders: 237202900 - Dilara Türkmen</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 237425130 - Veli Erden</t>
+          <t>Öğrencisiz ders: 237227079 - Beste Güner</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 237532637 - Ali Yurttaş</t>
+          <t>Öğrencisiz ders: 237275628 - Yağmur Bulut</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 237564411 - Rüveyda Kartal</t>
+          <t>Öğrencisiz ders: 237286698 - Nimet Avcı</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 237846824 - Rüveyda Çelik</t>
+          <t>Öğrencisiz ders: 237422937 - Fatma Bulut</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 237978002 - Batuhan Arı</t>
+          <t>Öğrencisiz ders: 237425130 - Veli Erden</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 238214946 - İlknur Erdoğan</t>
+          <t>Öğrencisiz ders: 237532637 - Ali Yurttaş</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 238217274 - Nehir Alkan</t>
+          <t>Öğrencisiz ders: 237564411 - Rüveyda Kartal</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 238221648 - Yaren Alkan</t>
+          <t>Öğrencisiz ders: 237846824 - Rüveyda Çelik</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 238764026 - Samet Gündüz</t>
+          <t>Öğrencisiz ders: 237978002 - Batuhan Arı</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 238767165 - Melis Akyüz</t>
+          <t>Öğrencisiz ders: 238214946 - İlknur Erdoğan</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 238774635 - Hüseyin Ay</t>
+          <t>Öğrencisiz ders: 238217274 - Nehir Alkan</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 238840837 - Ulaş Altun</t>
+          <t>Öğrencisiz ders: 238221648 - Yaren Alkan</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 239203321 - Berke Uzun</t>
+          <t>Öğrencisiz ders: 238764026 - Samet Gündüz</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 239317835 - Deniz Cansız</t>
+          <t>Öğrencisiz ders: 238767165 - Melis Akyüz</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 239333017 - Bade Bulut</t>
+          <t>Öğrencisiz ders: 238774635 - Hüseyin Ay</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 239359600 - Onur Ergin</t>
+          <t>Öğrencisiz ders: 238840837 - Ulaş Altun</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 239375542 - Cansu Doğan</t>
+          <t>Öğrencisiz ders: 239203321 - Berke Uzun</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 239714014 - Gül Bilgin</t>
+          <t>Öğrencisiz ders: 239317835 - Deniz Cansız</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 239906218 - Onur Başaran</t>
+          <t>Öğrencisiz ders: 239333017 - Bade Bulut</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 240000951 - Elif İlhan</t>
+          <t>Öğrencisiz ders: 239359600 - Onur Ergin</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 240066884 - Mustafa Kartal</t>
+          <t>Öğrencisiz ders: 239375542 - Cansu Doğan</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 240186782 - Bade Köse</t>
+          <t>Öğrencisiz ders: 239714014 - Gül Bilgin</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 240250534 - İlknur Korkmaz</t>
+          <t>Öğrencisiz ders: 239906218 - Onur Başaran</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 240414230 - Ayşe Türkmen</t>
+          <t>Öğrencisiz ders: 240000951 - Elif İlhan</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 240532013 - Pelin Su Avcı</t>
+          <t>Öğrencisiz ders: 240066884 - Mustafa Kartal</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 240680651 - Nehir Bilgili</t>
+          <t>Öğrencisiz ders: 240186782 - Bade Köse</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 240685378 - Gaye Ergin</t>
+          <t>Öğrencisiz ders: 240250534 - İlknur Korkmaz</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 240707818 - Kaan Kara</t>
+          <t>Öğrencisiz ders: 240414230 - Ayşe Türkmen</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 240806634 - Yaşar Polat</t>
+          <t>Öğrencisiz ders: 240532013 - Pelin Su Avcı</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 241148790 - Defne Baş</t>
+          <t>Öğrencisiz ders: 240680651 - Nehir Bilgili</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 241258462 - Tarık Yavuz</t>
+          <t>Öğrencisiz ders: 240685378 - Gaye Ergin</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 241337625 - İclal Aslan</t>
+          <t>Öğrencisiz ders: 240707818 - Kaan Kara</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 241542682 - Hazal Bayraktar</t>
+          <t>Öğrencisiz ders: 240806634 - Yaşar Polat</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 241638434 - Nil Ergin</t>
+          <t>Öğrencisiz ders: 241148790 - Defne Baş</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 241871136 - Nisa Ateşoğlu</t>
+          <t>Öğrencisiz ders: 241258462 - Tarık Yavuz</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 241938907 - Said Özer</t>
+          <t>Öğrencisiz ders: 241337625 - İclal Aslan</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 241995748 - Yağmur Bağcı</t>
+          <t>Öğrencisiz ders: 241542682 - Hazal Bayraktar</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 242016423 - Ece Doğan</t>
+          <t>Öğrencisiz ders: 241638434 - Nil Ergin</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 242254479 - Bora Keskin</t>
+          <t>Öğrencisiz ders: 241871136 - Nisa Ateşoğlu</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 242341346 - Kerem Çelik</t>
+          <t>Öğrencisiz ders: 241938907 - Said Özer</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 242410819 - Mustafa Kavak</t>
+          <t>Öğrencisiz ders: 241995748 - Yağmur Bağcı</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 242447968 - Hilal Akyüz</t>
+          <t>Öğrencisiz ders: 242016423 - Ece Doğan</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 242693618 - Melis Dağ</t>
+          <t>Öğrencisiz ders: 242254479 - Bora Keskin</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 242733726 - Ömer Aslan</t>
+          <t>Öğrencisiz ders: 242341346 - Kerem Çelik</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 242929404 - Ali Demir</t>
+          <t>Öğrencisiz ders: 242410819 - Mustafa Kavak</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 242948572 - Yalın Eren</t>
+          <t>Öğrencisiz ders: 242447968 - Hilal Akyüz</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 243278304 - Cansu Başaran</t>
+          <t>Öğrencisiz ders: 242693618 - Melis Dağ</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 243386076 - Okan Erden</t>
+          <t>Öğrencisiz ders: 242733726 - Ömer Aslan</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 243442513 - Fatma Gür</t>
+          <t>Öğrencisiz ders: 242929404 - Ali Demir</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 243570986 - Kerem Yalçın</t>
+          <t>Öğrencisiz ders: 242948572 - Yalın Eren</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 243632834 - Batuhan Gürbüz</t>
+          <t>Öğrencisiz ders: 243278304 - Cansu Başaran</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 243670440 - Sıla Bilgili</t>
+          <t>Öğrencisiz ders: 243386076 - Okan Erden</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 243840708 - Bora Kaplan</t>
+          <t>Öğrencisiz ders: 243442513 - Fatma Gür</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 243992553 - Zeynep Su Güneş</t>
+          <t>Öğrencisiz ders: 243570986 - Kerem Yalçın</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 244003412 - Yaşar Kurt</t>
+          <t>Öğrencisiz ders: 243632834 - Batuhan Gürbüz</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 244066975 - Fatma Koç</t>
+          <t>Öğrencisiz ders: 243670440 - Sıla Bilgili</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 244203341 - Emine Cansız</t>
+          <t>Öğrencisiz ders: 243840708 - Bora Kaplan</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 244440563 - Nimet Erol</t>
+          <t>Öğrencisiz ders: 243992553 - Zeynep Su Güneş</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 244629768 - Sıla Özdemir</t>
+          <t>Öğrencisiz ders: 244003412 - Yaşar Kurt</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 244671996 - İlknur Bozkurt</t>
+          <t>Öğrencisiz ders: 244066975 - Fatma Koç</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 244734828 - Mahir Kavak</t>
+          <t>Öğrencisiz ders: 244203341 - Emine Cansız</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 244846609 - Cansu Kaya</t>
+          <t>Öğrencisiz ders: 244440563 - Nimet Erol</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 245125568 - Berk Ayrancı</t>
+          <t>Öğrencisiz ders: 244629768 - Sıla Özdemir</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 245134870 - Ahmet Kavruk</t>
+          <t>Öğrencisiz ders: 244671996 - İlknur Bozkurt</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 245175165 - Büşranur Göksu</t>
+          <t>Öğrencisiz ders: 244734828 - Mahir Kavak</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 245208144 - Yalın Dal</t>
+          <t>Öğrencisiz ders: 244846609 - Cansu Kaya</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 245286918 - Selinay Baş</t>
+          <t>Öğrencisiz ders: 245125568 - Berk Ayrancı</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 245297501 - Pelin Akyüz</t>
+          <t>Öğrencisiz ders: 245134870 - Ahmet Kavruk</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 245342424 - Hazal Polat</t>
+          <t>Öğrencisiz ders: 245175165 - Büşranur Göksu</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 245748750 - Berk Avcı</t>
+          <t>Öğrencisiz ders: 245208144 - Yalın Dal</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 246391006 - Cansu Karaca</t>
+          <t>Öğrencisiz ders: 245286918 - Selinay Baş</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 246500334 - Arif Kurt</t>
+          <t>Öğrencisiz ders: 245297501 - Pelin Akyüz</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 246507999 - Nazlı Yılmaz</t>
+          <t>Öğrencisiz ders: 245342424 - Hazal Polat</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 246867449 - Berk Aslan</t>
+          <t>Öğrencisiz ders: 245748750 - Berk Avcı</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 247116867 - Naz Ayrancı</t>
+          <t>Öğrencisiz ders: 246391006 - Cansu Karaca</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 247176093 - Hakan Çevik</t>
+          <t>Öğrencisiz ders: 246500334 - Arif Kurt</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 247212487 - Eylül Sezer</t>
+          <t>Öğrencisiz ders: 246507999 - Nazlı Yılmaz</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 247722507 - Gamze Uçar</t>
+          <t>Öğrencisiz ders: 246867449 - Berk Aslan</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 247899948 - Zeynep Su Yıldız</t>
+          <t>Öğrencisiz ders: 247116867 - Naz Ayrancı</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 247971313 - Veli Keskin</t>
+          <t>Öğrencisiz ders: 247176093 - Hakan Çevik</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 248013402 - Gaye Yıldız</t>
+          <t>Öğrencisiz ders: 247212487 - Eylül Sezer</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 248071562 - Dilara Turan</t>
+          <t>Öğrencisiz ders: 247722507 - Gamze Uçar</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 248193265 - Ekin Karatay</t>
+          <t>Öğrencisiz ders: 247899948 - Zeynep Su Yıldız</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 248223696 - Rabia Ay</t>
+          <t>Öğrencisiz ders: 247971313 - Veli Keskin</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 248501267 - Gamze Candan</t>
+          <t>Öğrencisiz ders: 248013402 - Gaye Yıldız</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 248554788 - Naz Koca</t>
+          <t>Öğrencisiz ders: 248071562 - Dilara Turan</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 248700624 - Oya Köse</t>
+          <t>Öğrencisiz ders: 248193265 - Ekin Karatay</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 248847511 - Gizem Aslan</t>
+          <t>Öğrencisiz ders: 248223696 - Rabia Ay</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 248950090 - Efe Ekinci</t>
+          <t>Öğrencisiz ders: 248501267 - Gamze Candan</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 249031182 - Mahir Erol</t>
+          <t>Öğrencisiz ders: 248554788 - Naz Koca</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 249080092 - Gökhan Elmas</t>
+          <t>Öğrencisiz ders: 248700624 - Oya Köse</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 249224386 - Sinem Karatay</t>
+          <t>Öğrencisiz ders: 248847511 - Gizem Aslan</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 249255664 - Yalın Öztürk</t>
+          <t>Öğrencisiz ders: 248950090 - Efe Ekinci</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 249260320 - Sadık Erden</t>
+          <t>Öğrencisiz ders: 249031182 - Mahir Erol</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 249267208 - Büşra Çakır</t>
+          <t>Öğrencisiz ders: 249080092 - Gökhan Elmas</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 249295623 - Hilal Baş</t>
+          <t>Öğrencisiz ders: 249224386 - Sinem Karatay</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 249871522 - Sadık Bayraktar</t>
+          <t>Öğrencisiz ders: 249255664 - Yalın Öztürk</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 249938281 - Pelin Su Bozkurt</t>
+          <t>Öğrencisiz ders: 249260320 - Sadık Erden</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 249997326 - Nehir Kurt</t>
+          <t>Öğrencisiz ders: 249267208 - Büşra Çakır</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 250053491 - Dilara Güler</t>
+          <t>Öğrencisiz ders: 249295623 - Hilal Baş</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 250201664 - Sevgi Güneş</t>
+          <t>Öğrencisiz ders: 249871522 - Sadık Bayraktar</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 250431592 - Kübra Türkmen</t>
+          <t>Öğrencisiz ders: 249938281 - Pelin Su Bozkurt</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 250446494 - Nazlı Kavak</t>
+          <t>Öğrencisiz ders: 249997326 - Nehir Kurt</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 250701939 - Sude Altun</t>
+          <t>Öğrencisiz ders: 250053491 - Dilara Güler</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 250808785 - Cem Başaran</t>
+          <t>Öğrencisiz ders: 250201664 - Sevgi Güneş</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 250947598 - Volkan Özkan</t>
+          <t>Öğrencisiz ders: 250431592 - Kübra Türkmen</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 251001097 - Bora Karatay</t>
+          <t>Öğrencisiz ders: 250446494 - Nazlı Kavak</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 251004514 - Ömer Kara</t>
+          <t>Öğrencisiz ders: 250701939 - Sude Altun</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 251341076 - Samet Can</t>
+          <t>Öğrencisiz ders: 250808785 - Cem Başaran</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 251416406 - Yağmur Çakır</t>
+          <t>Öğrencisiz ders: 250947598 - Volkan Özkan</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 251517263 - Büşra Ay</t>
+          <t>Öğrencisiz ders: 251001097 - Bora Karatay</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 251871506 - Zehra Polat</t>
+          <t>Öğrencisiz ders: 251004514 - Ömer Kara</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 251913569 - Arif İlhan</t>
+          <t>Öğrencisiz ders: 251341076 - Samet Can</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 252083387 - Deniz Dinç</t>
+          <t>Öğrencisiz ders: 251416406 - Yağmur Çakır</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 252175607 - Naz Yıldız</t>
+          <t>Öğrencisiz ders: 251517263 - Büşra Ay</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 252390149 - Yaren Bulut</t>
+          <t>Öğrencisiz ders: 251871506 - Zehra Polat</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 252615128 - Caner Ayrancı</t>
+          <t>Öğrencisiz ders: 251913569 - Arif İlhan</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 252804266 - Cem Can</t>
+          <t>Öğrencisiz ders: 252083387 - Deniz Dinç</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 252807838 - Veli Tuna</t>
+          <t>Öğrencisiz ders: 252175607 - Naz Yıldız</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 252833068 - Tolga Bozkurt</t>
+          <t>Öğrencisiz ders: 252390149 - Yaren Bulut</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 252964363 - Burak Polat</t>
+          <t>Öğrencisiz ders: 252615128 - Caner Ayrancı</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 253147994 - Işıl Öztürk</t>
+          <t>Öğrencisiz ders: 252804266 - Cem Can</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 253195350 - Pırıl Candan</t>
+          <t>Öğrencisiz ders: 252807838 - Veli Tuna</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 253498381 - Pelin Kartal</t>
+          <t>Öğrencisiz ders: 252833068 - Tolga Bozkurt</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 253609636 - Oya Dağ</t>
+          <t>Öğrencisiz ders: 252964363 - Burak Polat</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 253646838 - Sinem Kurt</t>
+          <t>Öğrencisiz ders: 253147994 - Işıl Öztürk</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 253907239 - İlknur Erol</t>
+          <t>Öğrencisiz ders: 253195350 - Pırıl Candan</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 254175487 - Mahir Özkan</t>
+          <t>Öğrencisiz ders: 253498381 - Pelin Kartal</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 254346045 - Ömer Gazi</t>
+          <t>Öğrencisiz ders: 253609636 - Oya Dağ</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 254417195 - Yaren Erol</t>
+          <t>Öğrencisiz ders: 253646838 - Sinem Kurt</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 254481230 - Samet Eren</t>
+          <t>Öğrencisiz ders: 253907239 - İlknur Erol</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 254554955 - Ahmet Elmas</t>
+          <t>Öğrencisiz ders: 254175487 - Mahir Özkan</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 254598870 - Yalın Aydın</t>
+          <t>Öğrencisiz ders: 254346045 - Ömer Gazi</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 254626612 - Hakan Türkmen</t>
+          <t>Öğrencisiz ders: 254417195 - Yaren Erol</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 254648767 - İlknur Köse</t>
+          <t>Öğrencisiz ders: 254481230 - Samet Eren</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 254703174 - Tolga Gürbüz</t>
+          <t>Öğrencisiz ders: 254554955 - Ahmet Elmas</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 254704500 - Halil Gündüz</t>
+          <t>Öğrencisiz ders: 254598870 - Yalın Aydın</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 254755377 - Can Ergin</t>
+          <t>Öğrencisiz ders: 254626612 - Hakan Türkmen</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 255043673 - Naz Güner</t>
+          <t>Öğrencisiz ders: 254648767 - İlknur Köse</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 255185754 - Nehir Özdemir</t>
+          <t>Öğrencisiz ders: 254703174 - Tolga Gürbüz</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 255414797 - Merve Aydoğdu</t>
+          <t>Öğrencisiz ders: 254704500 - Halil Gündüz</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 255425198 - Büşranur Balcı</t>
+          <t>Öğrencisiz ders: 254755377 - Can Ergin</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 255524883 - Doğukan Keleş</t>
+          <t>Öğrencisiz ders: 255043673 - Naz Güner</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 255636174 - Tunahan Balcı</t>
+          <t>Öğrencisiz ders: 255185754 - Nehir Özdemir</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 255785478 - Uğur Erdoğan</t>
+          <t>Öğrencisiz ders: 255414797 - Merve Aydoğdu</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 255838940 - Veli Köse</t>
+          <t>Öğrencisiz ders: 255425198 - Büşranur Balcı</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 256056644 - Yağmur Koç</t>
+          <t>Öğrencisiz ders: 255524883 - Doğukan Keleş</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 256250663 - Tolga Bulut</t>
+          <t>Öğrencisiz ders: 255636174 - Tunahan Balcı</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 256377736 - Taylan Keleş</t>
+          <t>Öğrencisiz ders: 255785478 - Uğur Erdoğan</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 256593449 - Bade Erden</t>
+          <t>Öğrencisiz ders: 255838940 - Veli Köse</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 256667874 - Merve Dağ</t>
+          <t>Öğrencisiz ders: 256056644 - Yağmur Koç</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 256758578 - Berke Duman</t>
+          <t>Öğrencisiz ders: 256250663 - Tolga Bulut</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 256779735 - Nalan Candan</t>
+          <t>Öğrencisiz ders: 256377736 - Taylan Keleş</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 256882869 - Samet Kaya</t>
+          <t>Öğrencisiz ders: 256593449 - Bade Erden</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 256911205 - Halil Dinç</t>
+          <t>Öğrencisiz ders: 256667874 - Merve Dağ</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 257059819 - Cansu Ay</t>
+          <t>Öğrencisiz ders: 256758578 - Berke Duman</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 257063251 - Yaren Sezer</t>
+          <t>Öğrencisiz ders: 256779735 - Nalan Candan</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 257137420 - Yiğit Köse</t>
+          <t>Öğrencisiz ders: 256882869 - Samet Kaya</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 257363404 - Mustafa Özdemir</t>
+          <t>Öğrencisiz ders: 256911205 - Halil Dinç</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 257370824 - Hazal Çetin</t>
+          <t>Öğrencisiz ders: 257059819 - Cansu Ay</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 257371132 - Fatma Arı</t>
+          <t>Öğrencisiz ders: 257063251 - Yaren Sezer</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 257529024 - Zeynep Arı</t>
+          <t>Öğrencisiz ders: 257137420 - Yiğit Köse</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 257593548 - İnci Ekinci</t>
+          <t>Öğrencisiz ders: 257363404 - Mustafa Özdemir</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 257798849 - Nalan Erdoğan</t>
+          <t>Öğrencisiz ders: 257370824 - Hazal Çetin</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 257890198 - Taylan Gündüz</t>
+          <t>Öğrencisiz ders: 257371132 - Fatma Arı</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 257974792 - Nevin Avcı</t>
+          <t>Öğrencisiz ders: 257529024 - Zeynep Arı</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 258002494 - Doğukan Arı</t>
+          <t>Öğrencisiz ders: 257593548 - İnci Ekinci</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 258120859 - Ulaş Çakır</t>
+          <t>Öğrencisiz ders: 257798849 - Nalan Erdoğan</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 258345984 - Büşranur Kaplan</t>
+          <t>Öğrencisiz ders: 257890198 - Taylan Gündüz</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 258650585 - Mustafa Özkan</t>
+          <t>Öğrencisiz ders: 257974792 - Nevin Avcı</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 258822098 - Gül Erol</t>
+          <t>Öğrencisiz ders: 258002494 - Doğukan Arı</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 258989622 - Gül Giray</t>
+          <t>Öğrencisiz ders: 258120859 - Ulaş Çakır</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 258992791 - Fatma İlhan</t>
+          <t>Öğrencisiz ders: 258345984 - Büşranur Kaplan</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 259112806 - Said Ateşoğlu</t>
+          <t>Öğrencisiz ders: 258650585 - Mustafa Özkan</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 259283899 - Derya Yıldız</t>
+          <t>Öğrencisiz ders: 258822098 - Gül Erol</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 259399325 - Umut Güneş</t>
+          <t>Öğrencisiz ders: 258989622 - Gül Giray</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 259592001 - Taha Turan</t>
+          <t>Öğrencisiz ders: 258992791 - Fatma İlhan</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>Öğrencisiz ders: 259677430 - Eren Yalçın</t>
+          <t>Öğrencisiz ders: 259112806 - Said Ateşoğlu</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 259283899 - Derya Yıldız</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 259399325 - Umut Güneş</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 259592001 - Taha Turan</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Öğrencisiz ders: 259677430 - Eren Yalçın</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
         <is>
           <t>Öğrencisiz ders: 259757258 - Nil Öztürk</t>
         </is>

--- a/sinav_programi.xlsx
+++ b/sinav_programi.xlsx
@@ -546,120 +546,120 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>TDB107 - Türk Dili I</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>selimbozkuert</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>29.10.2025</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>75</v>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>Vize</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>YDB117 - İngilizce I</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>selimbozkuert</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>30.10.2025</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>75</v>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
+          <t>Vize</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>FEF111 - Fizik I</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>selimbozkuert</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>31.10.2025</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>Vize</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>FEF203 - Diferansiyel Denklemler</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>selimbozkuert</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
         <is>
           <t>28.10.2025</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D6" s="2" t="inlineStr">
         <is>
           <t>11:00</t>
         </is>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E6" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>Vize</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>YDB117 - İngilizce I</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>selimbozkuert</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>28.10.2025</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>75</v>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>Vize</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>FEF111 - Fizik I</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>selimbozkuert</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>28.10.2025</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>75</v>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>Vize</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>FEF113 - Lineer Cebir</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>selimbozkuert</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>29.10.2025</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>09:00</t>
-        </is>
-      </c>
-      <c r="E6" s="3" t="n">
-        <v>75</v>
-      </c>
-      <c r="F6" s="3" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
         <is>
           <t>Vize</t>
         </is>
@@ -668,7 +668,7 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>FEF115 - Matematik I</t>
+          <t>MUH201 - Nesneye Yönelik Programlama</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
@@ -696,120 +696,120 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>BLM101 - Bilgisayar Laboratuvarı I</t>
-        </is>
-      </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="A8" s="4" t="inlineStr">
+        <is>
+          <t>BLM207 - Veri Yapıları ve Algoritmaları</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
         <is>
           <t>selimbozkuert</t>
         </is>
       </c>
-      <c r="C8" s="3" t="inlineStr">
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>30.10.2025</t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>75</v>
+      </c>
+      <c r="F8" s="4" t="inlineStr">
+        <is>
+          <t>Vize</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="inlineStr">
+        <is>
+          <t>BLM209 - Programlama Laboratuvarı - I</t>
+        </is>
+      </c>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>selimbozkuert</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>31.10.2025</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="F9" s="5" t="inlineStr">
+        <is>
+          <t>Vize</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>MUH301 - Sayısal Yöntemler</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>selimbozkuert</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>28.10.2025</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>Vize</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>BLM303 - İşaret ve Sistemler</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>selimbozkuert</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
         <is>
           <t>29.10.2025</t>
         </is>
       </c>
-      <c r="D8" s="3" t="inlineStr">
+      <c r="D11" s="3" t="inlineStr">
         <is>
           <t>13:00</t>
         </is>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E11" s="3" t="n">
         <v>75</v>
       </c>
-      <c r="F8" s="3" t="inlineStr">
-        <is>
-          <t>Vize</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>BLM103 - Bilgisayar Mühendisliğine Giriş</t>
-        </is>
-      </c>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>selimbozkuert</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>29.10.2025</t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="E9" s="3" t="n">
-        <v>75</v>
-      </c>
-      <c r="F9" s="3" t="inlineStr">
-        <is>
-          <t>Vize</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="4" t="inlineStr">
-        <is>
-          <t>BLM105 - Programlama I</t>
-        </is>
-      </c>
-      <c r="B10" s="4" t="inlineStr">
-        <is>
-          <t>selimbozkuert</t>
-        </is>
-      </c>
-      <c r="C10" s="4" t="inlineStr">
-        <is>
-          <t>30.10.2025</t>
-        </is>
-      </c>
-      <c r="D10" s="4" t="inlineStr">
-        <is>
-          <t>09:00</t>
-        </is>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>75</v>
-      </c>
-      <c r="F10" s="4" t="inlineStr">
-        <is>
-          <t>Vize</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="4" t="inlineStr">
-        <is>
-          <t>FEF203 - Diferansiyel Denklemler</t>
-        </is>
-      </c>
-      <c r="B11" s="4" t="inlineStr">
-        <is>
-          <t>selimbozkuert</t>
-        </is>
-      </c>
-      <c r="C11" s="4" t="inlineStr">
-        <is>
-          <t>30.10.2025</t>
-        </is>
-      </c>
-      <c r="D11" s="4" t="inlineStr">
-        <is>
-          <t>11:00</t>
-        </is>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>75</v>
-      </c>
-      <c r="F11" s="4" t="inlineStr">
+      <c r="F11" s="3" t="inlineStr">
         <is>
           <t>Vize</t>
         </is>
@@ -818,7 +818,7 @@
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>MUH201 - Nesneye Yönelik Programlama</t>
+          <t>BLM305 - İşletim Sistemleri</t>
         </is>
       </c>
       <c r="B12" s="4" t="inlineStr">
@@ -846,120 +846,120 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="inlineStr">
-        <is>
-          <t>BLM207 - Veri Yapıları ve Algoritmaları</t>
-        </is>
-      </c>
-      <c r="B13" s="4" t="inlineStr">
+      <c r="A13" s="5" t="inlineStr">
+        <is>
+          <t>BLM325 - Mikroişlemci Sistemleri</t>
+        </is>
+      </c>
+      <c r="B13" s="5" t="inlineStr">
         <is>
           <t>selimbozkuert</t>
         </is>
       </c>
-      <c r="C13" s="4" t="inlineStr">
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>31.10.2025</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="F13" s="5" t="inlineStr">
+        <is>
+          <t>Vize</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>MUH403 - Araştırma Problemleri</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>selimbozkuert</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>28.10.2025</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>Vize</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>MUH402 - Bitirme Çalışması</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>selimbozkuert</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>29.10.2025</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="n">
+        <v>75</v>
+      </c>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>Vize</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="inlineStr">
+        <is>
+          <t>BLM401 - Bilgisayar Ağları</t>
+        </is>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>selimbozkuert</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
         <is>
           <t>30.10.2025</t>
         </is>
       </c>
-      <c r="D13" s="4" t="inlineStr">
+      <c r="D16" s="4" t="inlineStr">
         <is>
           <t>15:00</t>
         </is>
       </c>
-      <c r="E13" s="4" t="n">
+      <c r="E16" s="4" t="n">
         <v>75</v>
       </c>
-      <c r="F13" s="4" t="inlineStr">
-        <is>
-          <t>Vize</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="5" t="inlineStr">
-        <is>
-          <t>BLM209 - Programlama Laboratuvarı - I</t>
-        </is>
-      </c>
-      <c r="B14" s="5" t="inlineStr">
-        <is>
-          <t>selimbozkuert</t>
-        </is>
-      </c>
-      <c r="C14" s="5" t="inlineStr">
-        <is>
-          <t>31.10.2025</t>
-        </is>
-      </c>
-      <c r="D14" s="5" t="inlineStr">
-        <is>
-          <t>09:00</t>
-        </is>
-      </c>
-      <c r="E14" s="5" t="n">
-        <v>75</v>
-      </c>
-      <c r="F14" s="5" t="inlineStr">
-        <is>
-          <t>Vize</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="5" t="inlineStr">
-        <is>
-          <t>BLM211 - Mantıksal Tasarım ve Uygulamalar</t>
-        </is>
-      </c>
-      <c r="B15" s="5" t="inlineStr">
-        <is>
-          <t>selimbozkuert</t>
-        </is>
-      </c>
-      <c r="C15" s="5" t="inlineStr">
-        <is>
-          <t>31.10.2025</t>
-        </is>
-      </c>
-      <c r="D15" s="5" t="inlineStr">
-        <is>
-          <t>11:00</t>
-        </is>
-      </c>
-      <c r="E15" s="5" t="n">
-        <v>75</v>
-      </c>
-      <c r="F15" s="5" t="inlineStr">
-        <is>
-          <t>Vize</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="5" t="inlineStr">
-        <is>
-          <t>BLM205 - Ayrık Matematik</t>
-        </is>
-      </c>
-      <c r="B16" s="5" t="inlineStr">
-        <is>
-          <t>selimbozkuert</t>
-        </is>
-      </c>
-      <c r="C16" s="5" t="inlineStr">
-        <is>
-          <t>31.10.2025</t>
-        </is>
-      </c>
-      <c r="D16" s="5" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="E16" s="5" t="n">
-        <v>75</v>
-      </c>
-      <c r="F16" s="5" t="inlineStr">
+      <c r="F16" s="4" t="inlineStr">
         <is>
           <t>Vize</t>
         </is>
@@ -968,7 +968,7 @@
     <row r="17">
       <c r="A17" s="5" t="inlineStr">
         <is>
-          <t>BLM213 - Staj I</t>
+          <t>BLM405 - İş Hayatı ve İş Güvenliğine Hazırlık</t>
         </is>
       </c>
       <c r="B17" s="5" t="inlineStr">
@@ -1109,84 +1109,84 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>⚠️ MUH301 - Sayısal Yöntemler: Uygun slot veya derslik bulunamadı.</t>
+          <t>⚠️ FEF113 - Lineer Cebir: Uygun slot veya derslik bulunamadı.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>⚠️ BLM303 - İşaret ve Sistemler: Uygun slot veya derslik bulunamadı.</t>
+          <t>⚠️ FEF115 - Matematik I: Uygun slot veya derslik bulunamadı.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>⚠️ BLM305 - İşletim Sistemleri: Uygun slot veya derslik bulunamadı.</t>
+          <t>⚠️ BLM101 - Bilgisayar Laboratuvarı I: Uygun slot veya derslik bulunamadı.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>⚠️ BLM325 - Mikroişlemci Sistemleri: Uygun slot veya derslik bulunamadı.</t>
+          <t>⚠️ BLM103 - Bilgisayar Mühendisliğine Giriş: Uygun slot veya derslik bulunamadı.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>⚠️ BLM307 - Yazılım Laboratuvarı I: Uygun slot veya derslik bulunamadı.</t>
+          <t>⚠️ BLM105 - Programlama I: Uygun slot veya derslik bulunamadı.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>⚠️ BLM309 - Staj II: Uygun slot veya derslik bulunamadı.</t>
+          <t>⚠️ BLM211 - Mantıksal Tasarım ve Uygulamalar: Uygun slot veya derslik bulunamadı.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>⚠️ BLM323 - Bilgi Güvenliği ve Kriptografi: Uygun slot veya derslik bulunamadı.</t>
+          <t>⚠️ BLM205 - Ayrık Matematik: Uygun slot veya derslik bulunamadı.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>⚠️ BLM321 - Robotlar için Matematik Temelleri: Uygun slot veya derslik bulunamadı.</t>
+          <t>⚠️ BLM213 - Staj I: Uygun slot veya derslik bulunamadı.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>⚠️ MUH403 - Araştırma Problemleri: Uygun slot veya derslik bulunamadı.</t>
+          <t>⚠️ BLM307 - Yazılım Laboratuvarı I: Uygun slot veya derslik bulunamadı.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>⚠️ MUH402 - Bitirme Çalışması: Uygun slot veya derslik bulunamadı.</t>
+          <t>⚠️ BLM309 - Staj II: Uygun slot veya derslik bulunamadı.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>⚠️ BLM401 - Bilgisayar Ağları: Uygun slot veya derslik bulunamadı.</t>
+          <t>⚠️ BLM323 - Bilgi Güvenliği ve Kriptografi: Uygun slot veya derslik bulunamadı.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>⚠️ BLM405 - İş Hayatı ve İş Güvenliğine Hazırlık: Uygun slot veya derslik bulunamadı.</t>
+          <t>⚠️ BLM321 - Robotlar için Matematik Temelleri: Uygun slot veya derslik bulunamadı.</t>
         </is>
       </c>
     </row>
